--- a/biology/Médecine/Joseph_Jean_François_Lemaire/Joseph_Jean_François_Lemaire.xlsx
+++ b/biology/Médecine/Joseph_Jean_François_Lemaire/Joseph_Jean_François_Lemaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Jean_Fran%C3%A7ois_Lemaire</t>
+          <t>Joseph_Jean_François_Lemaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Jean François Lemaire, chirurgien-dentiste français, (8 mars 1782, Mayenne - 22 février 1834, Maisons-Alfort).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Jean_Fran%C3%A7ois_Lemaire</t>
+          <t>Joseph_Jean_François_Lemaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études médicales à l'école de médecine de Paris, et s'adonna plus particulièrement à l'art du dentiste, qu'il pratiqua fort jeune avec beaucoup de succès dans la capitale. 
 Il fut un des deux délégués que ses concitoyens envoyèrent à Paris, le 14 janvier 1790, pour faire attribuer à Mayenne le titre de chef-lieu du département. Il mourut à Maisons-Alfort le 22 février 1854. Joseph Lemaire avait été nommé dentiste du roi de Bavière, et chevalier de l'Ordre de Saint-Hubert (Bavière). Il a laissé des ouvrages et traités sur les dents.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Jean_Fran%C3%A7ois_Lemaire</t>
+          <t>Joseph_Jean_François_Lemaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Dentiste des dames, ouvrage dédié au beau sexe, Paris, 1812, in-18, avec le portrait de l'auteur et une gravure ; 2e édition, ornée de 4 gravures, corrigée et augmentée d'un Formulaire pharmaceutique extrait des meilleurs ouvrages, et relatif aux différents remèdes qu'on doit employer pour les nourrices, les enfants en bas âge, et aux préparations dentifrices, etc., Paris, 1818, in-12[1]. ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Dentiste des dames, ouvrage dédié au beau sexe, Paris, 1812, in-18, avec le portrait de l'auteur et une gravure ; 2e édition, ornée de 4 gravures, corrigée et augmentée d'un Formulaire pharmaceutique extrait des meilleurs ouvrages, et relatif aux différents remèdes qu'on doit employer pour les nourrices, les enfants en bas âge, et aux préparations dentifrices, etc., Paris, 1818, in-12. ;
 Traité sur les dents. Physiologie. Paris, 1820, in-4° ;
 Histoire naturelle des maladies des dents de l'espèce humaine, en deux parties, avec 25 planches, par Joseph Fox ; ouvrage traduit de l'anglais, Paris, 1821, in-4° ;
-Traité sur les dents, Paris, 1822-1821, 5 vol. in-8°. Le premier volume contient la Physiologie  [2] ;
+Traité sur les dents, Paris, 1822-1821, 5 vol. in-8°. Le premier volume contient la Physiologie   ;
 Plusieurs mémoires relatifs à l'art du dentiste, dans les journaux et recueils de médecine de l'époque.</t>
         </is>
       </c>
